--- a/Lecture 1.xlsx
+++ b/Lecture 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GITHUB\data-analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CBD90D-5BF5-4D9F-8977-9983230B7AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61271D1-8A05-402B-B62F-053ACC42A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FF2FF515-9552-43FF-81BD-55AA785FD8C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2FF515-9552-43FF-81BD-55AA785FD8C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,6 +357,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973B4991-C827-470A-9922-26064E003E4C}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,13 +911,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
+        <f>SUM(E2:E13)</f>
+        <v>801912</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -946,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EDAC30-9F6E-4E36-BA11-825FEB9039AA}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,50 +975,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="10" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1023,19 +1026,19 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>21</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>7196147284</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>51601</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1047,8 +1050,8 @@
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="Q2" s="8" t="s">
+      <c r="J2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -1065,19 +1068,19 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>27</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>8896353432</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>55074</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1089,8 +1092,8 @@
       <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="Q3" s="8" t="s">
+      <c r="J3" s="7"/>
+      <c r="Q3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -1107,19 +1110,19 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>23</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>9039957280</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>95675</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1131,8 +1134,8 @@
       <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="Q4" s="8" t="s">
+      <c r="J4" s="7"/>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -1149,19 +1152,19 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>22</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>9369826052</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>93563</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1173,8 +1176,8 @@
       <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="Q5" s="8" t="s">
+      <c r="J5" s="7"/>
+      <c r="Q5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -1191,19 +1194,19 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>27</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>8196941518</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>61427</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1215,8 +1218,8 @@
       <c r="I6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="Q6" s="8" t="s">
+      <c r="J6" s="7"/>
+      <c r="Q6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="1" t="s">
@@ -1233,19 +1236,19 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>28</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>8439733416</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>53196</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1257,8 +1260,8 @@
       <c r="I7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="Q7" s="8" t="s">
+      <c r="J7" s="7"/>
+      <c r="Q7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -1275,19 +1278,19 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>23</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>9085214843</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>58756</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1299,8 +1302,8 @@
       <c r="I8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="Q8" s="8" t="s">
+      <c r="J8" s="7"/>
+      <c r="Q8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -1317,19 +1320,19 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>24</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>9131375269</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>55292</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1341,8 +1344,8 @@
       <c r="I9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="Q9" s="8" t="s">
+      <c r="J9" s="7"/>
+      <c r="Q9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -1359,19 +1362,19 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>21</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>9224764914</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>52194</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1383,8 +1386,8 @@
       <c r="I10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="Q10" s="8" t="s">
+      <c r="J10" s="7"/>
+      <c r="Q10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -1401,19 +1404,19 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>26</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>8792840866</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>62098</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1425,8 +1428,8 @@
       <c r="I11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="Q11" s="8" t="s">
+      <c r="J11" s="7"/>
+      <c r="Q11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -1443,19 +1446,19 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>21</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>7812448500</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>82128</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1467,8 +1470,8 @@
       <c r="I12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="Q12" s="8" t="s">
+      <c r="J12" s="7"/>
+      <c r="Q12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -1485,19 +1488,19 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>26</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>7149491059</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>80908</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1509,8 +1512,8 @@
       <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="Q13" s="8" t="s">
+      <c r="J13" s="7"/>
+      <c r="Q13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="R13" s="1" t="s">
